--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-gender-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-gender-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Gender Value Set</t>
+    <t>ValueSet of Gender Identity</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Value set for Gender identity based on LOINC.</t>
+    <t>ValueSet for Gender identity based on LOINC.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,29 +371,37 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B15" t="s" s="2">
         <v>24</v>
       </c>
     </row>

--- a/ValueSet-molicavc-gender-valueset.xlsx
+++ b/ValueSet-molicavc-gender-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
